--- a/buyStats.xlsx
+++ b/buyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsatterthwaite/Learning/marketModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BFE688-6B1E-FE46-B820-1136427BAC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C635E-6CCA-8B49-94BD-F2D125A4841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="460" windowWidth="24340" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48700" yWindow="460" windowWidth="24340" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Damian" sheetId="11" r:id="rId1"/>
@@ -10497,7 +10497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10702,7 +10702,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H2" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I2" s="24">
         <v>0.9</v>
@@ -10848,22 +10848,22 @@
       </c>
       <c r="AV2" s="82">
         <f t="shared" ref="AV2:AV33" si="25">AVERAGE(F2:H2)</f>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW2" s="82">
         <f t="shared" ref="AW2:AW33" si="26">E2/$E$51</f>
-        <v>1.4658306656663622E-2</v>
+        <v>1.4661292896505125E-2</v>
       </c>
       <c r="AX2" s="49">
         <f t="shared" ref="AX2:AX33" si="27">AV2*$AX$51*AW2</f>
-        <v>1008.6691908578515</v>
+        <v>1001.4735776017458</v>
       </c>
       <c r="AY2" s="8">
         <v>623</v>
       </c>
       <c r="AZ2" s="1">
         <f t="shared" ref="AZ2:AZ33" si="28">AX2-AY2</f>
-        <v>385.6691908578515</v>
+        <v>378.47357760174577</v>
       </c>
       <c r="BA2" s="68">
         <v>0.59</v>
@@ -10893,7 +10893,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H3" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I3" s="21">
         <v>0</v>
@@ -11038,22 +11038,22 @@
       </c>
       <c r="AV3" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW3" s="82">
         <f t="shared" si="26"/>
-        <v>1.5320272797944168E-2</v>
+        <v>1.5323393895768323E-2</v>
       </c>
       <c r="AX3" s="49">
         <f t="shared" si="27"/>
-        <v>1054.220485952173</v>
+        <v>1046.6999202678735</v>
       </c>
       <c r="AY3" s="8">
         <v>2095</v>
       </c>
       <c r="AZ3" s="1">
         <f t="shared" si="28"/>
-        <v>-1040.779514047827</v>
+        <v>-1048.3000797321265</v>
       </c>
       <c r="BA3" s="68">
         <v>0.59</v>
@@ -11083,7 +11083,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H4" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I4" s="24">
         <v>1.7</v>
@@ -11229,22 +11229,22 @@
       </c>
       <c r="AV4" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW4" s="82">
         <f t="shared" si="26"/>
-        <v>3.3736510318185059E-2</v>
+        <v>3.3743383234244542E-2</v>
       </c>
       <c r="AX4" s="49">
         <f t="shared" si="27"/>
-        <v>2321.4808751147125</v>
+        <v>2304.9199662357919</v>
       </c>
       <c r="AY4" s="8">
         <v>2535</v>
       </c>
       <c r="AZ4" s="1">
         <f t="shared" si="28"/>
-        <v>-213.51912488528751</v>
+        <v>-230.08003376420811</v>
       </c>
       <c r="BA4" s="68">
         <v>0.59</v>
@@ -11274,7 +11274,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H5" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I5" s="21">
         <v>0</v>
@@ -11421,22 +11421,22 @@
       </c>
       <c r="AV5" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW5" s="82">
         <f t="shared" si="26"/>
-        <v>3.3906245226205708E-2</v>
+        <v>3.3913152721235108E-2</v>
       </c>
       <c r="AX5" s="49">
         <f t="shared" si="27"/>
-        <v>2333.1606943696665</v>
+        <v>2316.5164643553121</v>
       </c>
       <c r="AY5" s="8">
         <v>1845</v>
       </c>
       <c r="AZ5" s="1">
         <f t="shared" si="28"/>
-        <v>488.16069436966654</v>
+        <v>471.51646435531211</v>
       </c>
       <c r="BA5" s="68">
         <v>0.59</v>
@@ -11466,7 +11466,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H6" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I6" s="24">
         <v>3.7</v>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="AV6" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW6" s="82">
         <f t="shared" si="26"/>
-        <v>2.5239580822671151E-2</v>
+        <v>2.5244722715496899E-2</v>
       </c>
       <c r="AX6" s="49">
         <f t="shared" si="27"/>
-        <v>1736.7891232117013</v>
+        <v>1724.3992703726217</v>
       </c>
       <c r="AY6" s="8">
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
         <f t="shared" si="28"/>
-        <v>1736.7891232117013</v>
+        <v>1724.3992703726217</v>
       </c>
       <c r="BA6" s="68">
         <v>0.59</v>
@@ -11658,7 +11658,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H7" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I7" s="24">
         <v>2.4</v>
@@ -11806,22 +11806,22 @@
       </c>
       <c r="AV7" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW7" s="82">
         <f t="shared" si="26"/>
-        <v>3.3936797509649425E-2</v>
+        <v>3.3943711228893406E-2</v>
       </c>
       <c r="AX7" s="49">
         <f t="shared" si="27"/>
-        <v>2335.2630618355583</v>
+        <v>2318.6038340168252</v>
       </c>
       <c r="AY7" s="8">
         <v>2235</v>
       </c>
       <c r="AZ7" s="1">
         <f t="shared" si="28"/>
-        <v>100.26306183555835</v>
+        <v>83.603834016825203</v>
       </c>
       <c r="BA7" s="68">
         <v>0.59</v>
@@ -11851,7 +11851,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H8" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I8" s="21">
         <v>0</v>
@@ -11997,22 +11997,22 @@
       </c>
       <c r="AV8" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW8" s="82">
         <f t="shared" si="26"/>
-        <v>3.3709352732901751E-2</v>
+        <v>3.3716220116326051E-2</v>
       </c>
       <c r="AX8" s="49">
         <f t="shared" si="27"/>
-        <v>2319.6121040339194</v>
+        <v>2303.0645265366688</v>
       </c>
       <c r="AY8" s="8">
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
         <f t="shared" si="28"/>
-        <v>2319.6121040339194</v>
+        <v>2303.0645265366688</v>
       </c>
       <c r="BA8" s="68">
         <v>0.59</v>
@@ -12042,7 +12042,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H9" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I9" s="21">
         <v>0</v>
@@ -12189,22 +12189,22 @@
       </c>
       <c r="AV9" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW9" s="82">
         <f t="shared" si="26"/>
-        <v>3.1265170057404347E-2</v>
+        <v>3.1271539503661926E-2</v>
       </c>
       <c r="AX9" s="49">
         <f t="shared" si="27"/>
-        <v>2151.4227067625784</v>
+        <v>2136.0749536155809</v>
       </c>
       <c r="AY9" s="8">
         <v>2664</v>
       </c>
       <c r="AZ9" s="1">
         <f t="shared" si="28"/>
-        <v>-512.5772932374216</v>
+        <v>-527.92504638441915</v>
       </c>
       <c r="BA9" s="68">
         <v>0.59</v>
@@ -12234,7 +12234,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H10" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I10" s="21">
         <v>0</v>
@@ -12379,22 +12379,22 @@
       </c>
       <c r="AV10" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW10" s="82">
         <f t="shared" si="26"/>
-        <v>2.3762887122891467E-5</v>
+        <v>2.3767728178678987E-5</v>
       </c>
       <c r="AX10" s="49">
         <f t="shared" si="27"/>
-        <v>1.6351746956935991</v>
+        <v>1.6235097367327975</v>
       </c>
       <c r="AY10" s="8">
         <v>1617</v>
       </c>
       <c r="AZ10" s="49">
         <f t="shared" si="28"/>
-        <v>-1615.3648253043064</v>
+        <v>-1615.3764902632672</v>
       </c>
       <c r="BA10" s="68">
         <v>0.59</v>
@@ -12424,7 +12424,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H11" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I11" s="21">
         <v>0</v>
@@ -12569,22 +12569,22 @@
       </c>
       <c r="AV11" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW11" s="82">
         <f t="shared" si="26"/>
-        <v>5.4688587364254502E-3</v>
+        <v>5.469972870835978E-3</v>
       </c>
       <c r="AX11" s="49">
         <f t="shared" si="27"/>
-        <v>376.3237763946268</v>
+        <v>373.63916941093379</v>
       </c>
       <c r="AY11" s="8">
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
         <f t="shared" si="28"/>
-        <v>376.3237763946268</v>
+        <v>373.63916941093379</v>
       </c>
       <c r="BA11" s="68">
         <v>0.59</v>
@@ -12614,7 +12614,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H12" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I12" s="21">
         <v>0</v>
@@ -12762,22 +12762,22 @@
       </c>
       <c r="AV12" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW12" s="82">
         <f t="shared" si="26"/>
-        <v>9.3863404135421293E-3</v>
+        <v>9.3882526305782005E-3</v>
       </c>
       <c r="AX12" s="49">
         <f t="shared" si="27"/>
-        <v>645.89400479897154</v>
+        <v>641.28634600945509</v>
       </c>
       <c r="AY12" s="8">
         <v>742</v>
       </c>
       <c r="AZ12" s="1">
         <f t="shared" si="28"/>
-        <v>-96.105995201028463</v>
+        <v>-100.71365399054491</v>
       </c>
       <c r="BA12" s="68">
         <v>0.59</v>
@@ -12807,7 +12807,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H13" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I13" s="21">
         <v>0</v>
@@ -12954,22 +12954,22 @@
       </c>
       <c r="AV13" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW13" s="82">
         <f t="shared" si="26"/>
-        <v>3.3872298244601577E-2</v>
+        <v>3.3879198823836991E-2</v>
       </c>
       <c r="AX13" s="49">
         <f t="shared" si="27"/>
-        <v>2330.8247305186756</v>
+        <v>2314.1971647314076</v>
       </c>
       <c r="AY13" s="8">
         <v>3071</v>
       </c>
       <c r="AZ13" s="1">
         <f t="shared" si="28"/>
-        <v>-740.17526948132445</v>
+        <v>-756.80283526859239</v>
       </c>
       <c r="BA13" s="68">
         <v>0.59</v>
@@ -12999,7 +12999,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H14" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I14" s="24">
         <v>1.6</v>
@@ -13145,22 +13145,22 @@
       </c>
       <c r="AV14" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW14" s="82">
         <f t="shared" si="26"/>
-        <v>3.3946981604130664E-4</v>
+        <v>3.395389739811284E-4</v>
       </c>
       <c r="AX14" s="49">
         <f t="shared" si="27"/>
-        <v>23.359638509908557</v>
+        <v>23.192996239039967</v>
       </c>
       <c r="AY14" s="8">
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
         <f t="shared" si="28"/>
-        <v>23.359638509908557</v>
+        <v>23.192996239039967</v>
       </c>
       <c r="BA14" s="68">
         <v>0.59</v>
@@ -13190,7 +13190,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H15" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I15" s="24">
         <v>3</v>
@@ -13337,22 +13337,22 @@
       </c>
       <c r="AV15" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW15" s="82">
         <f t="shared" si="26"/>
-        <v>2.5120766387056695E-4</v>
+        <v>2.5125884074603505E-4</v>
       </c>
       <c r="AX15" s="49">
         <f t="shared" si="27"/>
-        <v>17.286132497332332</v>
+        <v>17.162817216889575</v>
       </c>
       <c r="AY15" s="8">
         <v>185</v>
       </c>
       <c r="AZ15" s="49">
         <f t="shared" si="28"/>
-        <v>-167.71386750266765</v>
+        <v>-167.83718278311042</v>
       </c>
       <c r="BA15" s="68">
         <v>0.59</v>
@@ -13382,7 +13382,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H16" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I16" s="24">
         <v>1.7</v>
@@ -13528,22 +13528,22 @@
       </c>
       <c r="AV16" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW16" s="82">
         <f t="shared" si="26"/>
-        <v>3.16182186660873E-2</v>
+        <v>3.1624660036602296E-2</v>
       </c>
       <c r="AX16" s="49">
         <f t="shared" si="27"/>
-        <v>2175.7167308128828</v>
+        <v>2160.1956697041824</v>
       </c>
       <c r="AY16" s="8">
         <v>2304</v>
       </c>
       <c r="AZ16" s="1">
         <f t="shared" si="28"/>
-        <v>-128.28326918711718</v>
+        <v>-143.80433029581764</v>
       </c>
       <c r="BA16" s="68">
         <v>0.59</v>
@@ -13573,7 +13573,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H17" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I17" s="21">
         <v>0</v>
@@ -13718,22 +13718,22 @@
       </c>
       <c r="AV17" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW17" s="82">
         <f t="shared" si="26"/>
-        <v>3.1774374781466303E-3</v>
+        <v>3.1780847964633617E-3</v>
       </c>
       <c r="AX17" s="49">
         <f t="shared" si="27"/>
-        <v>218.64621645274408</v>
+        <v>217.08644479741406</v>
       </c>
       <c r="AY17" s="8">
         <v>0</v>
       </c>
       <c r="AZ17" s="1">
         <f t="shared" si="28"/>
-        <v>218.64621645274408</v>
+        <v>217.08644479741406</v>
       </c>
       <c r="BA17" s="68">
         <v>0.59</v>
@@ -13763,7 +13763,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H18" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I18" s="24">
         <v>1.6</v>
@@ -13909,22 +13909,22 @@
       </c>
       <c r="AV18" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW18" s="82">
         <f t="shared" si="26"/>
-        <v>5.7709868727022128E-5</v>
+        <v>5.7721625576791824E-5</v>
       </c>
       <c r="AX18" s="49">
         <f t="shared" si="27"/>
-        <v>3.9711385466844544</v>
+        <v>3.9428093606367938</v>
       </c>
       <c r="AY18" s="8">
         <v>123</v>
       </c>
       <c r="AZ18" s="1">
         <f t="shared" si="28"/>
-        <v>-119.02886145331554</v>
+        <v>-119.0571906393632</v>
       </c>
       <c r="BA18" s="68">
         <f t="shared" ref="BA18:BA25" si="30">BA19*0.9</f>
@@ -13955,7 +13955,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H19" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I19" s="21">
         <v>0</v>
@@ -14101,22 +14101,22 @@
       </c>
       <c r="AV19" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW19" s="82">
         <f t="shared" si="26"/>
-        <v>3.3705958034741336E-2</v>
+        <v>3.3712824726586238E-2</v>
       </c>
       <c r="AX19" s="49">
         <f t="shared" si="27"/>
-        <v>2319.3785076488202</v>
+        <v>2302.8325965742783</v>
       </c>
       <c r="AY19" s="8">
         <v>3176</v>
       </c>
       <c r="AZ19" s="1">
         <f t="shared" si="28"/>
-        <v>-856.62149235117977</v>
+        <v>-873.16740342572166</v>
       </c>
       <c r="BA19" s="68">
         <v>0.59</v>
@@ -14146,7 +14146,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H20" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I20" s="21">
         <v>0</v>
@@ -14291,22 +14291,22 @@
       </c>
       <c r="AV20" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW20" s="82">
         <f t="shared" si="26"/>
-        <v>1.6973490802065332E-2</v>
+        <v>1.6976948699056419E-2</v>
       </c>
       <c r="AX20" s="49">
         <f t="shared" si="27"/>
-        <v>1167.9819254954277</v>
+        <v>1159.6498119519981</v>
       </c>
       <c r="AY20" s="8">
         <v>0</v>
       </c>
       <c r="AZ20" s="1">
         <f t="shared" si="28"/>
-        <v>1167.9819254954277</v>
+        <v>1159.6498119519981</v>
       </c>
       <c r="BA20" s="68">
         <v>0.65600000000000003</v>
@@ -14327,7 +14327,7 @@
         <v>2757</v>
       </c>
       <c r="E21" s="21">
-        <v>0.99780000000000002</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="F21" s="21">
         <v>0.99280000000000002</v>
@@ -14336,7 +14336,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H21" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I21" s="24">
         <v>1.8</v>
@@ -14482,22 +14482,22 @@
       </c>
       <c r="AV21" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW21" s="82">
         <f t="shared" si="26"/>
-        <v>3.3872298244601577E-2</v>
+        <v>3.3675475439448314E-2</v>
       </c>
       <c r="AX21" s="49">
         <f t="shared" si="27"/>
-        <v>2330.8247305186756</v>
+        <v>2300.2813669879838</v>
       </c>
       <c r="AY21" s="8">
         <v>2725</v>
       </c>
       <c r="AZ21" s="1">
         <f t="shared" si="28"/>
-        <v>-394.17526948132445</v>
+        <v>-424.7186330120162</v>
       </c>
       <c r="BA21" s="68">
         <f t="shared" si="30"/>
@@ -14528,7 +14528,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H22" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I22" s="21">
         <v>0</v>
@@ -14675,22 +14675,22 @@
       </c>
       <c r="AV22" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW22" s="82">
         <f t="shared" si="26"/>
-        <v>7.8078057689500536E-5</v>
+        <v>7.8093964015659535E-5</v>
       </c>
       <c r="AX22" s="49">
         <f t="shared" si="27"/>
-        <v>5.3727168572789683</v>
+        <v>5.3343891349791921</v>
       </c>
       <c r="AY22" s="8">
         <v>0</v>
       </c>
       <c r="AZ22" s="1">
         <f t="shared" si="28"/>
-        <v>5.3727168572789683</v>
+        <v>5.3343891349791921</v>
       </c>
       <c r="BA22" s="68">
         <f>BA25*0.9</f>
@@ -14721,7 +14721,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H23" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I23" s="21">
         <v>0</v>
@@ -14867,22 +14867,22 @@
       </c>
       <c r="AV23" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW23" s="82">
         <f t="shared" si="26"/>
-        <v>3.3811193677714145E-2</v>
+        <v>3.3818081808520389E-2</v>
       </c>
       <c r="AX23" s="49">
         <f t="shared" si="27"/>
-        <v>2326.6199955868924</v>
+        <v>2310.0224254083805</v>
       </c>
       <c r="AY23" s="8">
         <v>2182</v>
       </c>
       <c r="AZ23" s="49">
         <f t="shared" si="28"/>
-        <v>144.6199955868924</v>
+        <v>128.02242540838051</v>
       </c>
       <c r="BA23" s="68">
         <f>BA26*0.9</f>
@@ -14913,7 +14913,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H24" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I24" s="21">
         <v>0</v>
@@ -15058,22 +15058,22 @@
       </c>
       <c r="AV24" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW24" s="82">
         <f t="shared" si="26"/>
-        <v>8.4663772120701884E-3</v>
+        <v>8.4681020110893429E-3</v>
       </c>
       <c r="AX24" s="49">
         <f t="shared" si="27"/>
-        <v>582.58938443711941</v>
+        <v>578.43332620165677</v>
       </c>
       <c r="AY24" s="8">
         <v>1091</v>
       </c>
       <c r="AZ24" s="49">
         <f t="shared" si="28"/>
-        <v>-508.41061556288059</v>
+        <v>-512.56667379834323</v>
       </c>
       <c r="BA24" s="68">
         <v>0.9</v>
@@ -15103,7 +15103,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H25" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I25" s="24">
         <v>7</v>
@@ -15249,22 +15249,22 @@
       </c>
       <c r="AV25" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW25" s="82">
         <f t="shared" si="26"/>
-        <v>3.3773851997949599E-2</v>
+        <v>3.3780732521382466E-2</v>
       </c>
       <c r="AX25" s="49">
         <f t="shared" si="27"/>
-        <v>2324.0504353508022</v>
+        <v>2307.4711958220864</v>
       </c>
       <c r="AY25" s="8">
         <v>1517</v>
       </c>
       <c r="AZ25" s="1">
         <f t="shared" si="28"/>
-        <v>807.05043535080222</v>
+        <v>790.47119582208643</v>
       </c>
       <c r="BA25" s="68">
         <f t="shared" si="30"/>
@@ -15295,7 +15295,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H26" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I26" s="24">
         <v>7.3</v>
@@ -15442,22 +15442,22 @@
       </c>
       <c r="AV26" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW26" s="82">
         <f t="shared" si="26"/>
-        <v>2.7870471896991279E-3</v>
+        <v>2.7876149763850643E-3</v>
       </c>
       <c r="AX26" s="49">
         <f t="shared" si="27"/>
-        <v>191.78263216634926</v>
+        <v>190.41449912251812</v>
       </c>
       <c r="AY26" s="8">
         <v>3083</v>
       </c>
       <c r="AZ26" s="74">
         <f t="shared" si="28"/>
-        <v>-2891.2173678336508</v>
+        <v>-2892.585500877482</v>
       </c>
       <c r="BA26" s="68">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H27" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I27" s="21">
         <v>0</v>
@@ -15633,22 +15633,22 @@
       </c>
       <c r="AV27" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW27" s="82">
         <f t="shared" si="26"/>
-        <v>3.3841745961157861E-2</v>
+        <v>3.3848640316178687E-2</v>
       </c>
       <c r="AX27" s="49">
         <f t="shared" si="27"/>
-        <v>2328.7223630527837</v>
+        <v>2312.1097950698941</v>
       </c>
       <c r="AY27" s="8">
         <v>2303</v>
       </c>
       <c r="AZ27" s="1">
         <f t="shared" si="28"/>
-        <v>25.722363052783749</v>
+        <v>9.1097950698940622</v>
       </c>
       <c r="BA27" s="68">
         <f t="shared" ref="BA27:BA31" si="32">BA26*1.1</f>
@@ -15679,7 +15679,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H28" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I28" s="24">
         <v>3.8</v>
@@ -15825,22 +15825,22 @@
       </c>
       <c r="AV28" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW28" s="82">
         <f t="shared" si="26"/>
-        <v>1.4620964976899079E-2</v>
+        <v>1.4623943609367201E-2</v>
       </c>
       <c r="AX28" s="49">
         <f t="shared" si="27"/>
-        <v>1006.0996306217615</v>
+        <v>998.92234801545135</v>
       </c>
       <c r="AY28" s="8">
         <v>2916</v>
       </c>
       <c r="AZ28" s="1">
         <f t="shared" si="28"/>
-        <v>-1909.9003693782383</v>
+        <v>-1917.0776519845485</v>
       </c>
       <c r="BA28" s="68">
         <f t="shared" si="32"/>
@@ -15871,7 +15871,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H29" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I29" s="24">
         <v>2.5</v>
@@ -16017,22 +16017,22 @@
       </c>
       <c r="AV29" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW29" s="82">
         <f t="shared" si="26"/>
-        <v>1.298472046357998E-2</v>
+        <v>1.2987365754778161E-2</v>
       </c>
       <c r="AX29" s="49">
         <f t="shared" si="27"/>
-        <v>893.50617300400233</v>
+        <v>887.13210614327863</v>
       </c>
       <c r="AY29" s="8">
         <v>1326</v>
       </c>
       <c r="AZ29" s="49">
         <f t="shared" si="28"/>
-        <v>-432.49382699599767</v>
+        <v>-438.86789385672137</v>
       </c>
       <c r="BA29" s="68">
         <f t="shared" si="32"/>
@@ -16063,7 +16063,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H30" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I30" s="24">
         <v>3.9</v>
@@ -16210,22 +16210,22 @@
       </c>
       <c r="AV30" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW30" s="82">
         <f t="shared" si="26"/>
-        <v>3.3946981604130663E-2</v>
+        <v>3.3953897398112838E-2</v>
       </c>
       <c r="AX30" s="49">
         <f t="shared" si="27"/>
-        <v>2335.9638509908555</v>
+        <v>2319.2996239039962</v>
       </c>
       <c r="AY30" s="8">
         <v>2215</v>
       </c>
       <c r="AZ30" s="1">
         <f t="shared" si="28"/>
-        <v>120.96385099085546</v>
+        <v>104.29962390399623</v>
       </c>
       <c r="BA30" s="68">
         <f t="shared" si="32"/>
@@ -16256,7 +16256,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H31" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I31" s="24">
         <v>1.9</v>
@@ -16402,22 +16402,22 @@
       </c>
       <c r="AV31" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW31" s="82">
         <f t="shared" si="26"/>
-        <v>4.294293172922529E-3</v>
+        <v>4.2951680208612739E-3</v>
       </c>
       <c r="AX31" s="49">
         <f t="shared" si="27"/>
-        <v>295.49942715034319</v>
+        <v>293.39140242385554</v>
       </c>
       <c r="AY31" s="8">
         <v>376</v>
       </c>
       <c r="AZ31" s="1">
         <f t="shared" si="28"/>
-        <v>-80.500572849656805</v>
+        <v>-82.608597576144462</v>
       </c>
       <c r="BA31" s="68">
         <f t="shared" si="32"/>
@@ -16448,7 +16448,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H32" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I32" s="24">
         <v>3.2</v>
@@ -16595,22 +16595,22 @@
       </c>
       <c r="AV32" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW32" s="82">
         <f t="shared" si="26"/>
-        <v>3.3797614885072491E-2</v>
+        <v>3.3804500249561144E-2</v>
       </c>
       <c r="AX32" s="49">
         <f t="shared" si="27"/>
-        <v>2325.6856100464956</v>
+        <v>2309.094705558819</v>
       </c>
       <c r="AY32" s="8">
         <v>231</v>
       </c>
       <c r="AZ32" s="1">
         <f t="shared" si="28"/>
-        <v>2094.6856100464956</v>
+        <v>2078.094705558819</v>
       </c>
       <c r="BA32" s="68">
         <v>1.611</v>
@@ -16640,7 +16640,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H33" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I33" s="21">
         <v>0</v>
@@ -16787,22 +16787,22 @@
       </c>
       <c r="AV33" s="82">
         <f t="shared" si="25"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW33" s="82">
         <f t="shared" si="26"/>
-        <v>3.3804404281393315E-2</v>
+        <v>3.3811291029040763E-2</v>
       </c>
       <c r="AX33" s="49">
         <f t="shared" si="27"/>
-        <v>2326.152802816694</v>
+        <v>2309.5585654835995</v>
       </c>
       <c r="AY33" s="8">
         <v>2551</v>
       </c>
       <c r="AZ33" s="1">
         <f t="shared" si="28"/>
-        <v>-224.84719718330598</v>
+        <v>-241.44143451640048</v>
       </c>
       <c r="BA33" s="68">
         <v>1.611</v>
@@ -16832,7 +16832,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H34" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I34" s="21">
         <v>0</v>
@@ -16979,22 +16979,22 @@
       </c>
       <c r="AV34" s="82">
         <f t="shared" ref="AV34:AV50" si="58">AVERAGE(F34:H34)</f>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW34" s="82">
         <f t="shared" ref="AW34:AW50" si="59">E34/$E$51</f>
-        <v>8.113328603387229E-4</v>
+        <v>8.1149814781489695E-4</v>
       </c>
       <c r="AX34" s="49">
         <f t="shared" ref="AX34:AX50" si="60">AV34*$AX$51*AW34</f>
-        <v>55.829536038681447</v>
+        <v>55.431261011305523</v>
       </c>
       <c r="AY34" s="8">
         <v>238</v>
       </c>
       <c r="AZ34" s="1">
         <f t="shared" ref="AZ34:AZ50" si="61">AX34-AY34</f>
-        <v>-182.17046396131855</v>
+        <v>-182.56873898869446</v>
       </c>
       <c r="BA34" s="68">
         <v>1.611</v>
@@ -17024,7 +17024,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H35" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I35" s="21">
         <v>0</v>
@@ -17170,22 +17170,22 @@
       </c>
       <c r="AV35" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW35" s="82">
         <f t="shared" si="59"/>
-        <v>1.0863034113321813E-4</v>
+        <v>1.0865247167396109E-4</v>
       </c>
       <c r="AX35" s="49">
         <f t="shared" si="60"/>
-        <v>7.475084323170738</v>
+        <v>7.4217587964927896</v>
       </c>
       <c r="AY35" s="8">
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
         <f t="shared" si="61"/>
-        <v>7.475084323170738</v>
+        <v>7.4217587964927896</v>
       </c>
       <c r="BA35" s="68">
         <v>1.611</v>
@@ -17215,7 +17215,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H36" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I36" s="21">
         <v>0</v>
@@ -17362,22 +17362,22 @@
       </c>
       <c r="AV36" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW36" s="82">
         <f t="shared" si="59"/>
-        <v>1.9186834002654654E-2</v>
+        <v>1.9190742809413377E-2</v>
       </c>
       <c r="AX36" s="49">
         <f t="shared" si="60"/>
-        <v>1320.2867685800318</v>
+        <v>1310.8681474305388</v>
       </c>
       <c r="AY36" s="8">
         <v>1341</v>
       </c>
       <c r="AZ36" s="1">
         <f t="shared" si="61"/>
-        <v>-20.713231419968224</v>
+        <v>-30.131852569461216</v>
       </c>
       <c r="BA36" s="68">
         <v>1.611</v>
@@ -17407,7 +17407,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H37" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I37" s="24">
         <v>6.6</v>
@@ -17554,22 +17554,22 @@
       </c>
       <c r="AV37" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW37" s="82">
         <f t="shared" si="59"/>
-        <v>3.3906245226205708E-2</v>
+        <v>3.3913152721235108E-2</v>
       </c>
       <c r="AX37" s="49">
         <f t="shared" si="60"/>
-        <v>2333.1606943696665</v>
+        <v>2316.5164643553121</v>
       </c>
       <c r="AY37" s="8">
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
         <f t="shared" si="61"/>
-        <v>2333.1606943696665</v>
+        <v>2316.5164643553121</v>
       </c>
       <c r="BA37" s="68">
         <v>1.611</v>
@@ -17599,7 +17599,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H38" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I38" s="21">
         <v>0</v>
@@ -17746,22 +17746,22 @@
       </c>
       <c r="AV38" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW38" s="82">
         <f t="shared" si="59"/>
-        <v>3.3733115620024644E-2</v>
+        <v>3.3739987844504729E-2</v>
       </c>
       <c r="AX38" s="49">
         <f t="shared" si="60"/>
-        <v>2321.2472787296133</v>
+        <v>2304.6880362734014</v>
       </c>
       <c r="AY38" s="8">
         <v>2834</v>
       </c>
       <c r="AZ38" s="1">
         <f t="shared" si="61"/>
-        <v>-512.7527212703867</v>
+        <v>-529.31196372659861</v>
       </c>
       <c r="BA38" s="68">
         <v>1.611</v>
@@ -17791,7 +17791,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H39" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I39" s="24">
         <v>10.8</v>
@@ -17937,22 +17937,22 @@
       </c>
       <c r="AV39" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW39" s="82">
         <f t="shared" si="59"/>
-        <v>3.376366790346836E-2</v>
+        <v>3.3770546352163033E-2</v>
       </c>
       <c r="AX39" s="49">
         <f t="shared" si="60"/>
-        <v>2323.3496461955051</v>
+        <v>2306.7754059349149</v>
       </c>
       <c r="AY39" s="8">
         <v>2947</v>
       </c>
       <c r="AZ39" s="1">
         <f t="shared" si="61"/>
-        <v>-623.6503538044949</v>
+        <v>-640.22459406508506</v>
       </c>
       <c r="BA39" s="68">
         <v>1.611</v>
@@ -17982,7 +17982,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H40" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I40" s="24">
         <v>5.8</v>
@@ -18129,22 +18129,22 @@
       </c>
       <c r="AV40" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW40" s="82">
         <f t="shared" si="59"/>
-        <v>2.0979234631352752E-3</v>
+        <v>2.0983508592033735E-3</v>
       </c>
       <c r="AX40" s="49">
         <f t="shared" si="60"/>
-        <v>144.36256599123487</v>
+        <v>143.33271675726698</v>
       </c>
       <c r="AY40" s="8">
         <v>165</v>
       </c>
       <c r="AZ40" s="1">
         <f t="shared" si="61"/>
-        <v>-20.637434008765126</v>
+        <v>-21.667283242733021</v>
       </c>
       <c r="BA40" s="68">
         <v>1.611</v>
@@ -18174,7 +18174,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H41" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I41" s="24">
         <v>5.0999999999999996</v>
@@ -18320,22 +18320,22 @@
       </c>
       <c r="AV41" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW41" s="82">
         <f t="shared" si="59"/>
-        <v>3.3760273205307952E-2</v>
+        <v>3.376715096242322E-2</v>
       </c>
       <c r="AX41" s="49">
         <f t="shared" si="60"/>
-        <v>2323.1160498104064</v>
+        <v>2306.5434759725244</v>
       </c>
       <c r="AY41" s="8">
         <v>2118</v>
       </c>
       <c r="AZ41" s="1">
         <f t="shared" si="61"/>
-        <v>205.11604981040637</v>
+        <v>188.54347597252445</v>
       </c>
       <c r="BA41" s="68">
         <v>1.611</v>
@@ -18365,7 +18365,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H42" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I42" s="24">
         <v>5.9</v>
@@ -18511,22 +18511,22 @@
       </c>
       <c r="AV42" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW42" s="82">
         <f t="shared" si="59"/>
-        <v>2.5809890113620546E-2</v>
+        <v>2.5815148191785191E-2</v>
       </c>
       <c r="AX42" s="49">
         <f t="shared" si="60"/>
-        <v>1776.0333159083475</v>
+        <v>1763.3635040542085</v>
       </c>
       <c r="AY42" s="8">
         <v>2405</v>
       </c>
       <c r="AZ42" s="1">
         <f t="shared" si="61"/>
-        <v>-628.9666840916525</v>
+        <v>-641.63649594579147</v>
       </c>
       <c r="BA42" s="68">
         <v>1.611</v>
@@ -18556,7 +18556,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H43" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I43" s="24">
         <v>6.5</v>
@@ -18702,22 +18702,22 @@
       </c>
       <c r="AV43" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW43" s="82">
         <f t="shared" si="59"/>
-        <v>3.3933402811489016E-2</v>
+        <v>3.3940315839153593E-2</v>
       </c>
       <c r="AX43" s="49">
         <f t="shared" si="60"/>
-        <v>2335.0294654504596</v>
+        <v>2318.3719040544347</v>
       </c>
       <c r="AY43" s="8">
         <v>5473</v>
       </c>
       <c r="AZ43" s="1">
         <f t="shared" si="61"/>
-        <v>-3137.9705345495404</v>
+        <v>-3154.6280959455653</v>
       </c>
       <c r="BA43" s="68">
         <v>1.611</v>
@@ -18747,7 +18747,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H44" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I44" s="24">
         <v>1.7</v>
@@ -18894,22 +18894,22 @@
       </c>
       <c r="AV44" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW44" s="82">
         <f t="shared" si="59"/>
-        <v>1.0540537788082572E-2</v>
+        <v>1.0542685142114037E-2</v>
       </c>
       <c r="AX44" s="49">
         <f t="shared" si="60"/>
-        <v>725.31677573266074</v>
+        <v>720.14253322219099</v>
       </c>
       <c r="AY44" s="8">
         <v>1043</v>
       </c>
       <c r="AZ44" s="1">
         <f t="shared" si="61"/>
-        <v>-317.68322426733926</v>
+        <v>-322.85746677780901</v>
       </c>
       <c r="BA44" s="68">
         <v>1.611</v>
@@ -18939,7 +18939,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H45" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I45" s="21">
         <v>0</v>
@@ -19085,22 +19085,22 @@
       </c>
       <c r="AV45" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW45" s="82">
         <f t="shared" si="59"/>
-        <v>3.3872298244601577E-2</v>
+        <v>3.3879198823836991E-2</v>
       </c>
       <c r="AX45" s="49">
         <f t="shared" si="60"/>
-        <v>2330.8247305186756</v>
+        <v>2314.1971647314076</v>
       </c>
       <c r="AY45" s="8">
         <v>3070</v>
       </c>
       <c r="AZ45" s="1">
         <f t="shared" si="61"/>
-        <v>-739.17526948132445</v>
+        <v>-755.80283526859239</v>
       </c>
       <c r="BA45" s="68">
         <v>1.611</v>
@@ -19130,7 +19130,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H46" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I46" s="21">
         <v>0</v>
@@ -19277,22 +19277,22 @@
       </c>
       <c r="AV46" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW46" s="82">
         <f t="shared" si="59"/>
-        <v>1.3578792641652266E-5</v>
+        <v>1.3581558959245137E-5</v>
       </c>
       <c r="AX46" s="49">
         <f t="shared" si="60"/>
-        <v>0.93438554039634225</v>
+        <v>0.9277198495615987</v>
       </c>
       <c r="AY46" s="8">
         <v>0</v>
       </c>
       <c r="AZ46" s="1">
         <f t="shared" si="61"/>
-        <v>0.93438554039634225</v>
+        <v>0.9277198495615987</v>
       </c>
       <c r="BA46" s="68">
         <v>1.611</v>
@@ -19322,7 +19322,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H47" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I47" s="24">
         <v>5.3</v>
@@ -19468,22 +19468,22 @@
       </c>
       <c r="AV47" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW47" s="82">
         <f t="shared" si="59"/>
-        <v>3.3909639924366124E-2</v>
+        <v>3.3916548110974915E-2</v>
       </c>
       <c r="AX47" s="49">
         <f t="shared" si="60"/>
-        <v>2333.3942907547657</v>
+        <v>2316.7483943177022</v>
       </c>
       <c r="AY47" s="8">
         <v>2812</v>
       </c>
       <c r="AZ47" s="1">
         <f t="shared" si="61"/>
-        <v>-478.60570924523427</v>
+        <v>-495.25160568229785</v>
       </c>
       <c r="BA47" s="68">
         <v>1.611</v>
@@ -19513,7 +19513,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H48" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I48" s="24">
         <v>4.3</v>
@@ -19659,22 +19659,22 @@
       </c>
       <c r="AV48" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW48" s="82">
         <f t="shared" si="59"/>
-        <v>3.3739905016345467E-2</v>
+        <v>3.3746778623984348E-2</v>
       </c>
       <c r="AX48" s="49">
         <f t="shared" si="60"/>
-        <v>2321.7144714998112</v>
+        <v>2305.1518961981819</v>
       </c>
       <c r="AY48" s="8">
         <v>2200</v>
       </c>
       <c r="AZ48" s="49">
         <f t="shared" si="61"/>
-        <v>121.71447149981122</v>
+        <v>105.15189619818193</v>
       </c>
       <c r="BA48" s="68">
         <v>1.611</v>
@@ -19704,7 +19704,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H49" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I49" s="21">
         <v>0</v>
@@ -19851,22 +19851,22 @@
       </c>
       <c r="AV49" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW49" s="82">
         <f t="shared" si="59"/>
-        <v>1.425773227373488E-4</v>
+        <v>1.4260636907207391E-4</v>
       </c>
       <c r="AX49" s="49">
         <f t="shared" si="60"/>
-        <v>9.8110481741615931</v>
+        <v>9.7410584203967847</v>
       </c>
       <c r="AY49" s="8">
         <v>2141</v>
       </c>
       <c r="AZ49" s="49">
         <f t="shared" si="61"/>
-        <v>-2131.1889518258386</v>
+        <v>-2131.2589415796033</v>
       </c>
       <c r="BA49" s="68">
         <v>1.611</v>
@@ -19896,7 +19896,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H50" s="21">
-        <v>0.13969999999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="I50" s="21">
         <v>0</v>
@@ -20042,22 +20042,22 @@
       </c>
       <c r="AV50" s="82">
         <f t="shared" si="58"/>
-        <v>0.70883333333333332</v>
+        <v>0.70363333333333333</v>
       </c>
       <c r="AW50" s="82">
         <f t="shared" si="59"/>
-        <v>3.3943586905970255E-2</v>
+        <v>3.3950502008373032E-2</v>
       </c>
       <c r="AX50" s="49">
         <f t="shared" si="60"/>
-        <v>2335.7302546057567</v>
+        <v>2319.0676939416062</v>
       </c>
       <c r="AY50" s="8">
         <v>2428</v>
       </c>
       <c r="AZ50" s="1">
         <f t="shared" si="61"/>
-        <v>-92.269745394243273</v>
+        <v>-108.93230605839381</v>
       </c>
       <c r="BA50" s="68">
         <v>1.611</v>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="E51" s="4">
         <f>SUM(E2:E50)</f>
-        <v>29.457700000000003</v>
+        <v>29.451700000000002</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -20197,7 +20197,7 @@
       <c r="AV51" s="82"/>
       <c r="AW51" s="82">
         <f>SUM(AW2:AW50)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AX51" s="1">
         <v>97078</v>
@@ -20309,7 +20309,7 @@
       <c r="AW53" s="82"/>
       <c r="AX53" s="1">
         <f>SUM(AX2:AX50)</f>
-        <v>68812.122333333347</v>
+        <v>68307.316733333311</v>
       </c>
       <c r="AY53" s="82"/>
       <c r="AZ53" s="82"/>
@@ -20859,7 +20859,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AZ50">
     <sortCondition ref="A2:A50"/>
   </sortState>
-  <conditionalFormatting sqref="B56:C57 C2:N2 I3:N15 I17:N19 C3:F19 I25:N50 H2:H19 H21:H50 C21:F50 C20:E20 I21:N23">
+  <conditionalFormatting sqref="B56:C57 C2:N2 I3:N15 I17:N19 C3:F19 I25:N50 C21:F50 C20:E20 I21:N23 H2:H50">
     <cfRule type="cellIs" dxfId="9" priority="21" operator="between">
       <formula>3000</formula>
       <formula>7000</formula>
